--- a/produit_by_day.xlsx
+++ b/produit_by_day.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22890" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -59,15 +59,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,19 +79,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,22 +451,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,17 +1043,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C791"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C911"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
+      <selection activeCell="C901" sqref="C892:C901"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2287,7 +2927,7 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2551,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2573,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="C196">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3607,7 +4247,7 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4146,7 +4786,7 @@
         <v>10</v>
       </c>
       <c r="C339">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4795,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="C398">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5576,7 +6216,7 @@
         <v>10</v>
       </c>
       <c r="C469">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7083,7 +7723,7 @@
         <v>7</v>
       </c>
       <c r="C606">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7325,7 +7965,7 @@
         <v>9</v>
       </c>
       <c r="C628">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7391,7 +8031,7 @@
         <v>5</v>
       </c>
       <c r="C634">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7952,7 +8592,7 @@
         <v>6</v>
       </c>
       <c r="C685">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8975,7 +9615,7 @@
         <v>9</v>
       </c>
       <c r="C778">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9121,7 +9761,1328 @@
         <v>0</v>
       </c>
     </row>
+    <row r="792" spans="1:3">
+      <c r="A792" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B792" t="s">
+        <v>3</v>
+      </c>
+      <c r="C792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3">
+      <c r="A793" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B793" t="s">
+        <v>4</v>
+      </c>
+      <c r="C793">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3">
+      <c r="A794" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B794" t="s">
+        <v>5</v>
+      </c>
+      <c r="C794">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3">
+      <c r="A795" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B795" t="s">
+        <v>6</v>
+      </c>
+      <c r="C795">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
+      <c r="A796" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B796" t="s">
+        <v>7</v>
+      </c>
+      <c r="C796">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3">
+      <c r="A797" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B797" t="s">
+        <v>8</v>
+      </c>
+      <c r="C797">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3">
+      <c r="A798" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B798" t="s">
+        <v>9</v>
+      </c>
+      <c r="C798">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3">
+      <c r="A799" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B799" t="s">
+        <v>10</v>
+      </c>
+      <c r="C799">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3">
+      <c r="A800" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B800" t="s">
+        <v>11</v>
+      </c>
+      <c r="C800">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3">
+      <c r="A801" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B801" t="s">
+        <v>12</v>
+      </c>
+      <c r="C801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3">
+      <c r="A802" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B802" t="s">
+        <v>3</v>
+      </c>
+      <c r="C802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3">
+      <c r="A803" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B803" t="s">
+        <v>4</v>
+      </c>
+      <c r="C803">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3">
+      <c r="A804" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B804" t="s">
+        <v>5</v>
+      </c>
+      <c r="C804">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3">
+      <c r="A805" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B805" t="s">
+        <v>6</v>
+      </c>
+      <c r="C805">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3">
+      <c r="A806" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B806" t="s">
+        <v>7</v>
+      </c>
+      <c r="C806">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="A807" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B807" t="s">
+        <v>8</v>
+      </c>
+      <c r="C807">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="A808" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B808" t="s">
+        <v>9</v>
+      </c>
+      <c r="C808">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3">
+      <c r="A809" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B809" t="s">
+        <v>10</v>
+      </c>
+      <c r="C809">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="A810" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B810" t="s">
+        <v>11</v>
+      </c>
+      <c r="C810">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
+      <c r="A811" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B811" t="s">
+        <v>12</v>
+      </c>
+      <c r="C811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="A812" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B812" t="s">
+        <v>3</v>
+      </c>
+      <c r="C812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="A813" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B813" t="s">
+        <v>4</v>
+      </c>
+      <c r="C813">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3">
+      <c r="A814" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B814" t="s">
+        <v>5</v>
+      </c>
+      <c r="C814">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="A815" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B815" t="s">
+        <v>6</v>
+      </c>
+      <c r="C815">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="A816" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B816" t="s">
+        <v>7</v>
+      </c>
+      <c r="C816">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3">
+      <c r="A817" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B817" t="s">
+        <v>8</v>
+      </c>
+      <c r="C817">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3">
+      <c r="A818" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B818" t="s">
+        <v>9</v>
+      </c>
+      <c r="C818">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3">
+      <c r="A819" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B819" t="s">
+        <v>10</v>
+      </c>
+      <c r="C819">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="A820" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B820" t="s">
+        <v>11</v>
+      </c>
+      <c r="C820">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3">
+      <c r="A821" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B821" t="s">
+        <v>12</v>
+      </c>
+      <c r="C821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3">
+      <c r="A822" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B822" t="s">
+        <v>3</v>
+      </c>
+      <c r="C822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3">
+      <c r="A823" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B823" t="s">
+        <v>4</v>
+      </c>
+      <c r="C823">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3">
+      <c r="A824" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B824" t="s">
+        <v>5</v>
+      </c>
+      <c r="C824">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3">
+      <c r="A825" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B825" t="s">
+        <v>6</v>
+      </c>
+      <c r="C825">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3">
+      <c r="A826" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B826" t="s">
+        <v>7</v>
+      </c>
+      <c r="C826">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3">
+      <c r="A827" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B827" t="s">
+        <v>8</v>
+      </c>
+      <c r="C827">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3">
+      <c r="A828" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B828" t="s">
+        <v>9</v>
+      </c>
+      <c r="C828">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3">
+      <c r="A829" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B829" t="s">
+        <v>10</v>
+      </c>
+      <c r="C829">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3">
+      <c r="A830" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B830" t="s">
+        <v>11</v>
+      </c>
+      <c r="C830">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3">
+      <c r="A831" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B831" t="s">
+        <v>12</v>
+      </c>
+      <c r="C831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3">
+      <c r="A832" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B832" t="s">
+        <v>3</v>
+      </c>
+      <c r="C832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="A833" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B833" t="s">
+        <v>4</v>
+      </c>
+      <c r="C833">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="A834" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B834" t="s">
+        <v>5</v>
+      </c>
+      <c r="C834">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3">
+      <c r="A835" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B835" t="s">
+        <v>6</v>
+      </c>
+      <c r="C835">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="A836" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B836" t="s">
+        <v>7</v>
+      </c>
+      <c r="C836">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="A837" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B837" t="s">
+        <v>8</v>
+      </c>
+      <c r="C837">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="A838" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B838" t="s">
+        <v>9</v>
+      </c>
+      <c r="C838">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3">
+      <c r="A839" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B839" t="s">
+        <v>10</v>
+      </c>
+      <c r="C839">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3">
+      <c r="A840" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B840" t="s">
+        <v>11</v>
+      </c>
+      <c r="C840">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3">
+      <c r="A841" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B841" t="s">
+        <v>12</v>
+      </c>
+      <c r="C841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3">
+      <c r="A842" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B842" t="s">
+        <v>3</v>
+      </c>
+      <c r="C842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3">
+      <c r="A843" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B843" t="s">
+        <v>4</v>
+      </c>
+      <c r="C843">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3">
+      <c r="A844" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B844" t="s">
+        <v>5</v>
+      </c>
+      <c r="C844">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3">
+      <c r="A845" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B845" t="s">
+        <v>6</v>
+      </c>
+      <c r="C845">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="A846" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B846" t="s">
+        <v>7</v>
+      </c>
+      <c r="C846">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B847" t="s">
+        <v>8</v>
+      </c>
+      <c r="C847">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="A848" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B848" t="s">
+        <v>9</v>
+      </c>
+      <c r="C848">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3">
+      <c r="A849" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B849" t="s">
+        <v>10</v>
+      </c>
+      <c r="C849">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="A850" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B850" t="s">
+        <v>11</v>
+      </c>
+      <c r="C850">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B851" t="s">
+        <v>12</v>
+      </c>
+      <c r="C851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3">
+      <c r="A852" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B852" t="s">
+        <v>3</v>
+      </c>
+      <c r="C852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="A853" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B853" t="s">
+        <v>4</v>
+      </c>
+      <c r="C853">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3">
+      <c r="A854" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B854" t="s">
+        <v>5</v>
+      </c>
+      <c r="C854">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3">
+      <c r="A855" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B855" t="s">
+        <v>6</v>
+      </c>
+      <c r="C855">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3">
+      <c r="A856" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B856" t="s">
+        <v>7</v>
+      </c>
+      <c r="C856">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3">
+      <c r="A857" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B857" t="s">
+        <v>8</v>
+      </c>
+      <c r="C857">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3">
+      <c r="A858" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B858" t="s">
+        <v>9</v>
+      </c>
+      <c r="C858">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="A859" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B859" t="s">
+        <v>10</v>
+      </c>
+      <c r="C859">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="A860" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B860" t="s">
+        <v>11</v>
+      </c>
+      <c r="C860">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B861" t="s">
+        <v>12</v>
+      </c>
+      <c r="C861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B862" t="s">
+        <v>3</v>
+      </c>
+      <c r="C862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B863" t="s">
+        <v>4</v>
+      </c>
+      <c r="C863">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="A864" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B864" t="s">
+        <v>5</v>
+      </c>
+      <c r="C864">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="A865" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B865" t="s">
+        <v>6</v>
+      </c>
+      <c r="C865">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3">
+      <c r="A866" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B866" t="s">
+        <v>7</v>
+      </c>
+      <c r="C866">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B867" t="s">
+        <v>8</v>
+      </c>
+      <c r="C867">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="A868" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B868" t="s">
+        <v>9</v>
+      </c>
+      <c r="C868">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="A869" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B869" t="s">
+        <v>10</v>
+      </c>
+      <c r="C869">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="A870" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B870" t="s">
+        <v>11</v>
+      </c>
+      <c r="C870">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B871" t="s">
+        <v>12</v>
+      </c>
+      <c r="C871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="A872" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B872" t="s">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3">
+      <c r="A873" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B873" t="s">
+        <v>4</v>
+      </c>
+      <c r="C873">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3">
+      <c r="A874" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B874" t="s">
+        <v>5</v>
+      </c>
+      <c r="C874">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="A875" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B875" t="s">
+        <v>6</v>
+      </c>
+      <c r="C875">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="A876" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B876" t="s">
+        <v>7</v>
+      </c>
+      <c r="C876">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="A877" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B877" t="s">
+        <v>8</v>
+      </c>
+      <c r="C877">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3">
+      <c r="A878" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B878" t="s">
+        <v>9</v>
+      </c>
+      <c r="C878">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B879" t="s">
+        <v>10</v>
+      </c>
+      <c r="C879">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3">
+      <c r="A880" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B880" t="s">
+        <v>11</v>
+      </c>
+      <c r="C880">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="A881" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B881" t="s">
+        <v>12</v>
+      </c>
+      <c r="C881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="A882" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B882" t="s">
+        <v>3</v>
+      </c>
+      <c r="C882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B883" t="s">
+        <v>4</v>
+      </c>
+      <c r="C883">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B884" t="s">
+        <v>5</v>
+      </c>
+      <c r="C884">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="A885" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B885" t="s">
+        <v>6</v>
+      </c>
+      <c r="C885">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="A886" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B886" t="s">
+        <v>7</v>
+      </c>
+      <c r="C886">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="A887" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B887" t="s">
+        <v>8</v>
+      </c>
+      <c r="C887">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B888" t="s">
+        <v>9</v>
+      </c>
+      <c r="C888">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B889" t="s">
+        <v>10</v>
+      </c>
+      <c r="C889">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="A890" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B890" t="s">
+        <v>11</v>
+      </c>
+      <c r="C890">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="A891" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B891" t="s">
+        <v>12</v>
+      </c>
+      <c r="C891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="A892" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B892" t="s">
+        <v>3</v>
+      </c>
+      <c r="C892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="A893" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B893" t="s">
+        <v>4</v>
+      </c>
+      <c r="C893">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B894" t="s">
+        <v>5</v>
+      </c>
+      <c r="C894">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="A895" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B895" t="s">
+        <v>6</v>
+      </c>
+      <c r="C895">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3">
+      <c r="A896" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B896" t="s">
+        <v>7</v>
+      </c>
+      <c r="C896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="A897" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B897" t="s">
+        <v>8</v>
+      </c>
+      <c r="C897">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="A898" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B898" t="s">
+        <v>9</v>
+      </c>
+      <c r="C898">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="A899" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B899" t="s">
+        <v>10</v>
+      </c>
+      <c r="C899">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="A900" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B900" t="s">
+        <v>11</v>
+      </c>
+      <c r="C900">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="A901" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B901" t="s">
+        <v>12</v>
+      </c>
+      <c r="C901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="A902" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B902" t="s">
+        <v>3</v>
+      </c>
+      <c r="C902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="A903" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B903" t="s">
+        <v>4</v>
+      </c>
+      <c r="C903">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="A904" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B904" t="s">
+        <v>5</v>
+      </c>
+      <c r="C904">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3">
+      <c r="A905" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B905" t="s">
+        <v>6</v>
+      </c>
+      <c r="C905">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B906" t="s">
+        <v>7</v>
+      </c>
+      <c r="C906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="A907" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B907" t="s">
+        <v>8</v>
+      </c>
+      <c r="C907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="A908" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B908" t="s">
+        <v>9</v>
+      </c>
+      <c r="C908">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="A909" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B909" t="s">
+        <v>10</v>
+      </c>
+      <c r="C909">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3">
+      <c r="A910" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B910" t="s">
+        <v>11</v>
+      </c>
+      <c r="C910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3">
+      <c r="A911" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B911" t="s">
+        <v>12</v>
+      </c>
+      <c r="C911">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>